--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/80.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/80.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1270707276535231</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.315768102677177</v>
+        <v>-1.316642671483632</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1693573223208487</v>
+        <v>-0.1687353418341216</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1309624376742227</v>
+        <v>-0.1302192731959502</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1496003551282898</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.386904565762431</v>
+        <v>-1.387136713408885</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2373546820106487</v>
+        <v>-0.2369604690261033</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1340869405887673</v>
+        <v>-0.1337613498644947</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1767329520585723</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491346185849403</v>
+        <v>-1.491410427965403</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.283213332498</v>
+        <v>-0.2829826448996364</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1388642179422206</v>
+        <v>-0.1385751284202207</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1972983553307597</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.645865995406452</v>
+        <v>-1.645133051264816</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.292505078548543</v>
+        <v>-0.2930131752841792</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1487180825077634</v>
+        <v>-0.148675741113127</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.20519739802646</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.740709259343791</v>
+        <v>-1.739598162746609</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2917297930122704</v>
+        <v>-0.2923357129699976</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.165083761558759</v>
+        <v>-0.1654414733410316</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1995507826446243</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.581080741516651</v>
+        <v>-1.580141930594197</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2248099488135611</v>
+        <v>-0.2253939680499246</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1708159103636665</v>
+        <v>-0.1713940894076664</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1869541254456041</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420755780750149</v>
+        <v>-1.420450630699149</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.149267060589945</v>
+        <v>-0.1496685738149449</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1516425588338535</v>
+        <v>-0.1519272682115807</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1729800264654777</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151314125909585</v>
+        <v>-1.150747627250313</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008481923424073763</v>
+        <v>-0.008679029916346438</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1280481816847689</v>
+        <v>-0.1284818159677688</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1602028471300691</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.779128886911776</v>
+        <v>-0.7790237634492305</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07740686557172136</v>
+        <v>0.07759229167926676</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1153939448808632</v>
+        <v>-0.1156932547394995</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.149576560708958</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4017414965660591</v>
+        <v>-0.4026467263824225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1182794518286195</v>
+        <v>0.1193336065502556</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07204657710987487</v>
+        <v>-0.07245539057532931</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1418490363604281</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06901742924135998</v>
+        <v>0.06708286552090595</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1316491121970704</v>
+        <v>0.1331383612497973</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02825434659128001</v>
+        <v>0.02811418197455277</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1347281317826982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6102134550984873</v>
+        <v>0.6075240465150336</v>
       </c>
       <c r="F13" t="n">
-        <v>0.050306912956365</v>
+        <v>0.05253786643927349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1809374156499663</v>
+        <v>0.1804745804051482</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1206652305617789</v>
       </c>
       <c r="E14" t="n">
-        <v>1.174856393247518</v>
+        <v>1.171756711150518</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09581616002986849</v>
+        <v>-0.09348738332486912</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3099896063572953</v>
+        <v>0.3092785629370227</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.09093486897496315</v>
       </c>
       <c r="E15" t="n">
-        <v>1.822316179209071</v>
+        <v>1.81911721384189</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2625594922040055</v>
+        <v>-0.2606249284835515</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4915772474717011</v>
+        <v>0.4908530636186104</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.04272737741294026</v>
       </c>
       <c r="E16" t="n">
-        <v>2.452056821539356</v>
+        <v>2.44822273525263</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4992873095196693</v>
+        <v>-0.4971731598840334</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6100703703855783</v>
+        <v>0.6087942883541241</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.01883228816531834</v>
       </c>
       <c r="E17" t="n">
-        <v>3.06392793528501</v>
+        <v>3.059934703756375</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6350221403390873</v>
+        <v>-0.6320991240610881</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7964440491419829</v>
+        <v>0.7952745506211649</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.08475978186677718</v>
       </c>
       <c r="E18" t="n">
-        <v>3.666574465192303</v>
+        <v>3.662252722843213</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7582545793560542</v>
+        <v>-0.7554454468291459</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9374306729443995</v>
+        <v>0.9364159395212179</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1466712753822</v>
       </c>
       <c r="E19" t="n">
-        <v>4.20041038862316</v>
+        <v>4.196331014257161</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9161792210611027</v>
+        <v>-0.9130006963671945</v>
       </c>
       <c r="G19" t="n">
-        <v>1.090299168110631</v>
+        <v>1.08899534516545</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.201716717730742</v>
       </c>
       <c r="E20" t="n">
-        <v>4.744116237148559</v>
+        <v>4.739800334991833</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.131788902789863</v>
+        <v>-1.128700901077591</v>
       </c>
       <c r="G20" t="n">
-        <v>1.249212262373225</v>
+        <v>1.248035463611952</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2509686496106364</v>
       </c>
       <c r="E21" t="n">
-        <v>5.205050499352254</v>
+        <v>5.200779858686346</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.289088643912003</v>
+        <v>-1.285590368686185</v>
       </c>
       <c r="G21" t="n">
-        <v>1.425597752139723</v>
+        <v>1.42435525121436</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2945921789356882</v>
       </c>
       <c r="E22" t="n">
-        <v>5.608270520570418</v>
+        <v>5.604541557746237</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.495593465745856</v>
+        <v>-1.492581386534312</v>
       </c>
       <c r="G22" t="n">
-        <v>1.540442214874419</v>
+        <v>1.539477123086329</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3318780275050073</v>
       </c>
       <c r="E23" t="n">
-        <v>5.881460118860344</v>
+        <v>5.877428926081346</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.676521165123171</v>
+        <v>-1.673038950426354</v>
       </c>
       <c r="G23" t="n">
-        <v>1.702224303635649</v>
+        <v>1.700827037612649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.3631095025290076</v>
       </c>
       <c r="E24" t="n">
-        <v>6.185166182298354</v>
+        <v>6.181697108034355</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.848152738305671</v>
+        <v>-1.84488953082249</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814694728174528</v>
+        <v>1.81395886393671</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3883712707788062</v>
       </c>
       <c r="E25" t="n">
-        <v>6.395697816766934</v>
+        <v>6.392951466307935</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.983267778710498</v>
+        <v>-1.980063703174999</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916108208520955</v>
+        <v>1.915693554863137</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.4079277191498012</v>
       </c>
       <c r="E26" t="n">
-        <v>6.494719738340453</v>
+        <v>6.492279997980544</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.088404381688743</v>
+        <v>-2.085623720099607</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980122557018756</v>
+        <v>1.979893329468483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4224676124350448</v>
       </c>
       <c r="E27" t="n">
-        <v>6.548287442747802</v>
+        <v>6.546106130899984</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.176407320320173</v>
+        <v>-2.173306178175083</v>
       </c>
       <c r="G27" t="n">
-        <v>2.061758225925734</v>
+        <v>2.061545058904461</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4333187927639381</v>
       </c>
       <c r="E28" t="n">
-        <v>6.658194022839045</v>
+        <v>6.656275519647592</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234909987274794</v>
+        <v>-2.232203788138295</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092220669294453</v>
+        <v>2.091972461118999</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.4413378904596959</v>
       </c>
       <c r="E29" t="n">
-        <v>6.594806034972244</v>
+        <v>6.593164940918062</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294825980781414</v>
+        <v>-2.292501584220688</v>
       </c>
       <c r="G29" t="n">
-        <v>2.136857259529714</v>
+        <v>2.137327395014986</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.4464783939935418</v>
       </c>
       <c r="E30" t="n">
-        <v>6.562885003560707</v>
+        <v>6.560738732867072</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329097689619314</v>
+        <v>-2.327277739673997</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1211048006769</v>
+        <v>2.121688819913263</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4483248172599701</v>
       </c>
       <c r="E31" t="n">
-        <v>6.473407416357459</v>
+        <v>6.471630537830823</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310357242348456</v>
+        <v>-2.308708118029774</v>
       </c>
       <c r="G31" t="n">
-        <v>2.102629352134541</v>
+        <v>2.103379816853268</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.4456169347788945</v>
       </c>
       <c r="E32" t="n">
-        <v>6.297118289764961</v>
+        <v>6.295700583068688</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316504774835227</v>
+        <v>-2.314670224409</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041082484910376</v>
+        <v>2.041501518712467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.4372345880099023</v>
       </c>
       <c r="E33" t="n">
-        <v>6.115190457445373</v>
+        <v>6.113493881563737</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.337427994001994</v>
+        <v>-2.336549775075312</v>
       </c>
       <c r="G33" t="n">
-        <v>1.97630453126103</v>
+        <v>1.976324971934302</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.422899797131674</v>
       </c>
       <c r="E34" t="n">
-        <v>5.874533650717074</v>
+        <v>5.873549578303801</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.383274234080572</v>
+        <v>-2.381542617044755</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892007194684325</v>
+        <v>1.892486090458143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4028467567728453</v>
       </c>
       <c r="E35" t="n">
-        <v>5.649865830632316</v>
+        <v>5.648510906003953</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370474722491621</v>
+        <v>-2.369230761518167</v>
       </c>
       <c r="G35" t="n">
-        <v>1.823377634171162</v>
+        <v>1.824025895523525</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3774629976388841</v>
       </c>
       <c r="E36" t="n">
-        <v>5.459460959096912</v>
+        <v>5.458189257209731</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.332289354746041</v>
+        <v>-2.330554087589995</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735122107220004</v>
+        <v>1.735970395160821</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3472038808919539</v>
       </c>
       <c r="E37" t="n">
-        <v>5.096146972299465</v>
+        <v>5.095435928879192</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271209702910966</v>
+        <v>-2.270064295183648</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649055192357118</v>
+        <v>1.649598330246935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3129319304071719</v>
       </c>
       <c r="E38" t="n">
-        <v>4.823518032476447</v>
+        <v>4.822009802798538</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.167507597182039</v>
+        <v>-2.165997177431994</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551379435123416</v>
+        <v>1.550970621657962</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2752546736337831</v>
       </c>
       <c r="E39" t="n">
-        <v>4.530130128896889</v>
+        <v>4.528440853255708</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.150143245236862</v>
+        <v>-2.148538652384953</v>
       </c>
       <c r="G39" t="n">
-        <v>1.439628814293356</v>
+        <v>1.439098816836356</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2347724333617034</v>
       </c>
       <c r="E40" t="n">
-        <v>4.260524948670144</v>
+        <v>4.259333549427962</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.12118611144987</v>
+        <v>-2.119458874558325</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382151101098553</v>
+        <v>1.382279585330553</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1915744098979009</v>
       </c>
       <c r="E41" t="n">
-        <v>3.964367333862132</v>
+        <v>3.963733672990678</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.031422354820803</v>
+        <v>-2.029725778939167</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262053385332767</v>
+        <v>1.262148288458676</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1456840688871507</v>
       </c>
       <c r="E42" t="n">
-        <v>3.708196056119837</v>
+        <v>3.708019390300837</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.936408995280874</v>
+        <v>-1.934637956946602</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157261353703977</v>
+        <v>1.157381077647431</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.09686883846752807</v>
       </c>
       <c r="E43" t="n">
-        <v>3.438231704062728</v>
+        <v>3.437694406365273</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.869308105118892</v>
+        <v>-1.867402742360256</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064526399209911</v>
+        <v>1.064536619546547</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.04558271676906103</v>
       </c>
       <c r="E44" t="n">
-        <v>3.170096792263527</v>
+        <v>3.1693784486028</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.828561082997812</v>
+        <v>-1.826730182691813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9312429891351285</v>
+        <v>0.9309947809596739</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.006967413972446377</v>
       </c>
       <c r="E45" t="n">
-        <v>2.911935468973324</v>
+        <v>2.911342689448415</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.744641168852608</v>
+        <v>-1.74305409657779</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8098180896547065</v>
+        <v>0.8099013123958883</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.05940596766527127</v>
       </c>
       <c r="E46" t="n">
-        <v>2.662249724850846</v>
+        <v>2.661721187441937</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69536600583253</v>
+        <v>-1.694127885051439</v>
       </c>
       <c r="G46" t="n">
-        <v>0.769176190996172</v>
+        <v>0.7692696340739901</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1100293194449942</v>
       </c>
       <c r="E47" t="n">
-        <v>2.362259483804199</v>
+        <v>2.361582021490017</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648526203028088</v>
+        <v>-1.647422406671361</v>
       </c>
       <c r="G47" t="n">
-        <v>0.661856816122019</v>
+        <v>0.6620772833837462</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.157358256769666</v>
       </c>
       <c r="E48" t="n">
-        <v>2.170010571529978</v>
+        <v>2.169635339170614</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614657467463279</v>
+        <v>-1.613212019853279</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5995799248523993</v>
+        <v>0.599857333989672</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2006272911250098</v>
       </c>
       <c r="E49" t="n">
-        <v>1.973060304403031</v>
+        <v>1.972369701656031</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.565339963048565</v>
+        <v>-1.564405532270383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5383805490738703</v>
+        <v>0.5387265804714156</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2397965789904179</v>
       </c>
       <c r="E50" t="n">
-        <v>1.85981605437597</v>
+        <v>1.85926999638997</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491933125181948</v>
+        <v>-1.491200181040312</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4771096309388868</v>
+        <v>0.4775593257508866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2753341856028053</v>
       </c>
       <c r="E51" t="n">
-        <v>1.683323981098836</v>
+        <v>1.682626078111381</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433669906114237</v>
+        <v>-1.433357455822782</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4191705425473569</v>
+        <v>0.4197093002929022</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3077778494072882</v>
       </c>
       <c r="E52" t="n">
-        <v>1.564792896934595</v>
+        <v>1.564038052071595</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.393363818516611</v>
+        <v>-1.393163791928157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3383554206674695</v>
+        <v>0.3386605707184694</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3373533432880018</v>
       </c>
       <c r="E53" t="n">
-        <v>1.386744412392552</v>
+        <v>1.386230475464552</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.356047909409166</v>
+        <v>-1.355900444551985</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2719641138776691</v>
+        <v>0.2722342227744872</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3644710770638565</v>
       </c>
       <c r="E54" t="n">
-        <v>1.336143525705929</v>
+        <v>1.334725819009656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.337042463409808</v>
+        <v>-1.336985521534263</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2184343707206835</v>
+        <v>0.2193264601042287</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.389368035867901</v>
       </c>
       <c r="E55" t="n">
-        <v>1.212623457215053</v>
+        <v>1.211604343647599</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301320926817636</v>
+        <v>-1.301011396622363</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1647235816004252</v>
+        <v>0.1645936373203343</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.412573448477121</v>
       </c>
       <c r="E56" t="n">
-        <v>1.183032662556606</v>
+        <v>1.181774101102243</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247960549239195</v>
+        <v>-1.247834985103377</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1049594330952594</v>
+        <v>0.1047929876128958</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4345818240908796</v>
       </c>
       <c r="E57" t="n">
-        <v>1.092750588855267</v>
+        <v>1.091035032348449</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240166812529925</v>
+        <v>-1.239736098343107</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06209680129045274</v>
+        <v>0.06147482080372563</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4557284749873555</v>
       </c>
       <c r="E58" t="n">
-        <v>1.039404811757736</v>
+        <v>1.037655674144827</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202538453131026</v>
+        <v>-1.202236223176208</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01529596786434466</v>
+        <v>-0.01579384426334453</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4766309614451414</v>
       </c>
       <c r="E59" t="n">
-        <v>0.930289577731765</v>
+        <v>0.9287141858416745</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.118027949533049</v>
+        <v>-1.118080511264321</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09155719974868781</v>
+        <v>-0.09203317542632405</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4976630895425057</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9080501252110438</v>
+        <v>0.9056994477846808</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.099746687386781</v>
+        <v>-1.099342254065599</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1179475689918626</v>
+        <v>-0.1187374550090442</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5193019281390686</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7750178434078977</v>
+        <v>0.7724423185755347</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.069371846903516</v>
+        <v>-1.06910465810288</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.146198039502855</v>
+        <v>-0.1471821119161274</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5413741615979634</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7353673174030901</v>
+        <v>0.7328720952157272</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.064006170169427</v>
+        <v>-1.06386746560079</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2223278670590163</v>
+        <v>-0.2229775884594707</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5632444070524718</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6446063479279327</v>
+        <v>0.641994321893297</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.099280932045781</v>
+        <v>-1.098971401850508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2370670525367397</v>
+        <v>-0.2377430548028304</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5842821217829969</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5571991089175925</v>
+        <v>0.5536497320085935</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.085238189507421</v>
+        <v>-1.084881937773239</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2867904503207263</v>
+        <v>-0.2879059270621805</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6041351795382329</v>
       </c>
       <c r="E65" t="n">
-        <v>0.473491631769615</v>
+        <v>0.4692239111998889</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.053079170257066</v>
+        <v>-1.05260319457943</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3187538231268995</v>
+        <v>-0.3200474257354446</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6224777523789534</v>
       </c>
       <c r="E66" t="n">
-        <v>0.42430115153881</v>
+        <v>0.4202363776537202</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.069260883248607</v>
+        <v>-1.068522098914607</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.347786879414619</v>
+        <v>-0.3490264602438005</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6396376742468549</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3978275595544535</v>
+        <v>0.3930575824414548</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.087547985587239</v>
+        <v>-1.086744959137239</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3799006371741558</v>
+        <v>-0.3816293341137917</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6554701482448269</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3187586551912929</v>
+        <v>0.3138017919226579</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.103252262853053</v>
+        <v>-1.102367473709962</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3911459275703347</v>
+        <v>-0.3926249562864251</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6695418355427352</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2154281317015025</v>
+        <v>0.209982152322413</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145012558349223</v>
+        <v>-1.144085427811496</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4136073074008741</v>
+        <v>-0.4151826992909646</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6811344735268221</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1523146328757921</v>
+        <v>0.1463386560397028</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.193217506118665</v>
+        <v>-1.192029026972665</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4309570588651421</v>
+        <v>-0.4325937727750508</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6890911105460231</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09986970545035169</v>
+        <v>0.09463981318871673</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.281020418161641</v>
+        <v>-1.279339902809005</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4923769019053983</v>
+        <v>-0.4937289064375798</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6921858845060618</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01453135458482915</v>
+        <v>0.008530556931194396</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.316279119508995</v>
+        <v>-1.315068739641632</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4862666006449455</v>
+        <v>-0.4875237020512179</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6891184797187196</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000931006618014619</v>
+        <v>-0.005212875748529186</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306763986100543</v>
+        <v>-1.305518565078998</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5361739644883866</v>
+        <v>-0.5375668503671135</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.679522530281453</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03038017661164307</v>
+        <v>0.02447866222819011</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346967870331805</v>
+        <v>-1.345896195033078</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5224246916162993</v>
+        <v>-0.5234262846066627</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.663694510197663</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03653427931482324</v>
+        <v>0.03032031463991582</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.397678260625246</v>
+        <v>-1.39639925849761</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4724881268110401</v>
+        <v>-0.473897073218767</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.641742582669778</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08696726047099151</v>
+        <v>0.08084673887390226</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.343722183425715</v>
+        <v>-1.342469462163716</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4828749089297645</v>
+        <v>-0.4842385938466733</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6135511837974432</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2003122538163247</v>
+        <v>0.1941070494299627</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.342212493699716</v>
+        <v>-1.340791866907261</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4288443692775972</v>
+        <v>-0.4301788532326878</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5797080492528981</v>
       </c>
       <c r="E78" t="n">
-        <v>0.283256125812757</v>
+        <v>0.277595519364304</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.308491222992088</v>
+        <v>-1.306955252400452</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4311424849726875</v>
+        <v>-0.4321834992615055</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5415491634953966</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3745616932258234</v>
+        <v>0.3691244741352794</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.320219789306358</v>
+        <v>-1.319967200986631</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3992068530802416</v>
+        <v>-0.4002361869843322</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4997921083706099</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4754247354419781</v>
+        <v>0.4707993030899794</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33772138577208</v>
+        <v>-1.337084804804444</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3420576507058933</v>
+        <v>-0.3428066553765294</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4551424331230933</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5725179334874065</v>
+        <v>0.5684151983519532</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286485378165912</v>
+        <v>-1.285640010321276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2907734615127253</v>
+        <v>-0.2915414468085432</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4079988754304936</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7063036001054616</v>
+        <v>0.7030900342573715</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.219857543585385</v>
+        <v>-1.219444349975658</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2578274763413704</v>
+        <v>-0.2583209725960976</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3588586959111738</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8605766615351474</v>
+        <v>0.857992376414239</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164876512626036</v>
+        <v>-1.164121667763036</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2146757550145638</v>
+        <v>-0.2151400503074728</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3072513244043595</v>
       </c>
       <c r="E84" t="n">
-        <v>1.028696819059011</v>
+        <v>1.026382642834921</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.07339427939397</v>
+        <v>-1.072694916358424</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1663335627245768</v>
+        <v>-0.1663598435902132</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2535795307323358</v>
       </c>
       <c r="E85" t="n">
-        <v>1.120904696192259</v>
+        <v>1.119326384205987</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.001243082885535</v>
+        <v>-1.001248923077898</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1314661542655862</v>
+        <v>-0.1317932050379498</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1986981558871272</v>
       </c>
       <c r="E86" t="n">
-        <v>1.284021268908579</v>
+        <v>1.28313939986167</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9250154321072822</v>
+        <v>-0.9250928146561004</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04709435523624522</v>
+        <v>-0.04723451985297245</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1432954255380687</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383079691684371</v>
+        <v>1.381772948643007</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8245991646069455</v>
+        <v>-0.8249232952831272</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01793281471652577</v>
+        <v>-0.01792697452416214</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08869478333815688</v>
       </c>
       <c r="E88" t="n">
-        <v>1.469921892083529</v>
+        <v>1.468826856015348</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6977209855069796</v>
+        <v>-0.6981035181067977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0329192002417333</v>
+        <v>0.03305498471418781</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03683374546979609</v>
       </c>
       <c r="E89" t="n">
-        <v>1.567143574360958</v>
+        <v>1.566523053922322</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5647135245213789</v>
+        <v>-0.5654187277492878</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07887275385499369</v>
+        <v>0.07891509524963004</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.009419907133560826</v>
       </c>
       <c r="E90" t="n">
-        <v>1.626231720600033</v>
+        <v>1.625795166220851</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4373418491666859</v>
+        <v>-0.4375827571016858</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09131966382999035</v>
+        <v>0.09152699065889938</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04666854973694183</v>
       </c>
       <c r="E91" t="n">
-        <v>1.668578955428749</v>
+        <v>1.668812563123294</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2761189588242746</v>
+        <v>-0.2770212685444562</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1051652998760775</v>
+        <v>0.1056909171888047</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07246979033735261</v>
       </c>
       <c r="E92" t="n">
-        <v>1.698215011578013</v>
+        <v>1.698528921917559</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1182527190428625</v>
+        <v>-0.1187535155380442</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1040089417880778</v>
+        <v>0.1036585302462598</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08567276354963162</v>
       </c>
       <c r="E93" t="n">
-        <v>1.693618780187833</v>
+        <v>1.694382385339378</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03867178971991358</v>
+        <v>0.03840314087118638</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0993353278490791</v>
+        <v>0.09912070077971552</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08738959623946023</v>
       </c>
       <c r="E94" t="n">
-        <v>1.641633767911029</v>
+        <v>1.642468915419028</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1473241885010662</v>
+        <v>0.1476599995619752</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06055207041027134</v>
+        <v>0.06013741675245327</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0797448239028228</v>
       </c>
       <c r="E95" t="n">
-        <v>1.55017927559269</v>
+        <v>1.551516679643962</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2317660698387708</v>
+        <v>0.2323296484018616</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0116185586434663</v>
+        <v>0.01144773301682998</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06537874016102611</v>
       </c>
       <c r="E96" t="n">
-        <v>1.427230085905359</v>
+        <v>1.428564569860449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3105473447280224</v>
+        <v>0.3114379740634767</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02760271322261408</v>
+        <v>-0.0281268704872503</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04820516370041335</v>
       </c>
       <c r="E97" t="n">
-        <v>1.272862121349764</v>
+        <v>1.274171784487309</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3612095534344633</v>
+        <v>0.3617614516128268</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04805214678388132</v>
+        <v>-0.04861718539506298</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03085702152767975</v>
       </c>
       <c r="E98" t="n">
-        <v>1.141329308935981</v>
+        <v>1.142268119858435</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3807668976121854</v>
+        <v>0.3813100355020034</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08498698333959867</v>
+        <v>-0.08572138752932575</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0167789678347098</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9893178619991129</v>
+        <v>0.9895149684913855</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3761896468471866</v>
+        <v>0.3766057605530956</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1255412791126787</v>
+        <v>-0.1261252983490422</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.004774867784208153</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8823182376568689</v>
+        <v>0.8821328115493234</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3461418571362855</v>
+        <v>0.3463594043018309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1394409369381295</v>
+        <v>-0.1401724210316748</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.004984058002535191</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7432092356993607</v>
+        <v>0.7427142793965427</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3479304160476487</v>
+        <v>0.3479391763361941</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1325670305261314</v>
+        <v>-0.1331101684159494</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.01698658135331185</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6289984338361188</v>
+        <v>0.6287896469591188</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3051699876092057</v>
+        <v>0.3053364330915693</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.194988466556751</v>
+        <v>-0.1950731493460237</v>
       </c>
     </row>
   </sheetData>
